--- a/public/Store.xlsx
+++ b/public/Store.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdmxf\Documents\GitHub\rrlco\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFCC390-D1D0-472F-A107-BD44833EACBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A57E3DA-DB39-454C-9853-307E9AF003F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13515" xr2:uid="{443C1E68-6AF7-4299-AB4D-41571851114D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>عنوان محصول</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>دارایی</t>
+  </si>
+  <si>
+    <t>FDD6690A</t>
+  </si>
+  <si>
+    <t>AMS1117</t>
   </si>
 </sst>
 </file>
@@ -677,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81771D1-9822-493A-BB49-2C6987B6768C}">
   <dimension ref="A1:H10000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.45"/>
@@ -1823,11 +1829,29 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2">
+        <v>9</v>
+      </c>
       <c r="E76" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2">
+        <v>10</v>
+      </c>
       <c r="E77" s="1">
         <v>0</v>
       </c>

--- a/public/Store.xlsx
+++ b/public/Store.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdmxf\Documents\GitHub\rrlco\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A57E3DA-DB39-454C-9853-307E9AF003F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A69DCAA-9949-4A5C-8072-FA1453F744F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13515" xr2:uid="{443C1E68-6AF7-4299-AB4D-41571851114D}"/>
   </bookViews>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>فیش آداپتور مادگی سیم دار</t>
-  </si>
-  <si>
-    <t>موتور ZGA12 200rpm</t>
   </si>
   <si>
     <t>موتور ZGA12 100rpm</t>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>AMS1117</t>
+  </si>
+  <si>
+    <t>موتور ZGA12 300rpm</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81771D1-9822-493A-BB49-2C6987B6768C}">
   <dimension ref="A1:H10000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.45"/>
@@ -694,7 +694,7 @@
     <col min="3" max="3" width="9.06640625" style="2"/>
     <col min="4" max="4" width="9.53125" style="2" customWidth="1"/>
     <col min="5" max="7" width="9.06640625" style="1"/>
-    <col min="8" max="8" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.06640625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
@@ -709,13 +709,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -728,13 +728,16 @@
       <c r="C2" s="2">
         <v>500</v>
       </c>
+      <c r="D2" s="2">
+        <v>500</v>
+      </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2:E10000">C2:C10000*D2:D10000</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
+        <v>250000</v>
+      </c>
+      <c r="H2" s="2">
         <f>SUM(E2:E10000)</f>
-        <v>2030600</v>
+        <v>11370940</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -747,8 +750,11 @@
       <c r="C3" s="2">
         <v>500</v>
       </c>
+      <c r="D3" s="2">
+        <v>500</v>
+      </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -761,8 +767,11 @@
       <c r="C4" s="2">
         <v>500</v>
       </c>
+      <c r="D4" s="2">
+        <v>500</v>
+      </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -775,8 +784,11 @@
       <c r="C5" s="2">
         <v>9</v>
       </c>
+      <c r="D5" s="2">
+        <v>43800</v>
+      </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>394200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -789,13 +801,16 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
+      <c r="D6" s="2">
+        <v>193000</v>
+      </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>386000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -812,7 +827,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -820,8 +835,11 @@
       <c r="C8" s="2">
         <v>4</v>
       </c>
+      <c r="D8" s="2">
+        <v>98800</v>
+      </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>395200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -834,8 +852,11 @@
       <c r="C9" s="2">
         <v>4</v>
       </c>
+      <c r="D9" s="2">
+        <v>79900</v>
+      </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>319600</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -848,8 +869,11 @@
       <c r="C10" s="2">
         <v>2</v>
       </c>
+      <c r="D10" s="2">
+        <v>206000</v>
+      </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>412000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -862,8 +886,11 @@
       <c r="C11" s="2">
         <v>4</v>
       </c>
+      <c r="D11" s="2">
+        <v>85900</v>
+      </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>343600</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -876,8 +903,11 @@
       <c r="C12" s="2">
         <v>3</v>
       </c>
+      <c r="D12" s="2">
+        <v>290000</v>
+      </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>870000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -890,8 +920,11 @@
       <c r="C13" s="2">
         <v>3</v>
       </c>
+      <c r="D13" s="2">
+        <v>32800</v>
+      </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>98400</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -904,8 +937,11 @@
       <c r="C14" s="2">
         <v>3</v>
       </c>
+      <c r="D14" s="2">
+        <v>162000</v>
+      </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>486000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -918,8 +954,11 @@
       <c r="C15" s="2">
         <v>14</v>
       </c>
+      <c r="D15" s="2">
+        <v>12300</v>
+      </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>172200</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -932,8 +971,11 @@
       <c r="C16" s="2">
         <v>7</v>
       </c>
+      <c r="D16" s="2">
+        <v>74700</v>
+      </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>522900</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -946,8 +988,11 @@
       <c r="C17" s="2">
         <v>7</v>
       </c>
+      <c r="D17" s="2">
+        <v>97100</v>
+      </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>679700</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -977,8 +1022,11 @@
       <c r="C19" s="2">
         <v>4</v>
       </c>
+      <c r="D19" s="2">
+        <v>69700</v>
+      </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>278800</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -991,8 +1039,11 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
+      <c r="D20" s="2">
+        <v>79000</v>
+      </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>79000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -1005,8 +1056,11 @@
       <c r="C21" s="2">
         <v>1</v>
       </c>
+      <c r="D21" s="2">
+        <v>470000</v>
+      </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>470000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -1019,8 +1073,11 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
+      <c r="D22" s="2">
+        <v>142000</v>
+      </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>142000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -1050,8 +1107,11 @@
       <c r="C24" s="2">
         <v>9</v>
       </c>
+      <c r="D24" s="2">
+        <v>30000</v>
+      </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -1064,8 +1124,11 @@
       <c r="C25" s="2">
         <v>3</v>
       </c>
+      <c r="D25" s="2">
+        <v>38000</v>
+      </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>114000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -1078,8 +1141,11 @@
       <c r="C26" s="2">
         <v>14</v>
       </c>
+      <c r="D26" s="2">
+        <v>8870</v>
+      </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>124180</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -1092,13 +1158,16 @@
       <c r="C27" s="2">
         <v>14</v>
       </c>
+      <c r="D27" s="2">
+        <v>10800</v>
+      </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>151200</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2">
         <v>5</v>
@@ -1106,13 +1175,16 @@
       <c r="C28" s="2">
         <v>3</v>
       </c>
+      <c r="D28" s="2">
+        <v>199000</v>
+      </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>597000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>5</v>
@@ -1120,13 +1192,16 @@
       <c r="C29" s="2">
         <v>4</v>
       </c>
+      <c r="D29" s="2">
+        <v>199000</v>
+      </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>796000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>5</v>
@@ -1134,13 +1209,16 @@
       <c r="C30" s="2">
         <v>1</v>
       </c>
+      <c r="D30" s="2">
+        <v>284360</v>
+      </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>284360</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>5</v>
@@ -1148,13 +1226,16 @@
       <c r="C31" s="2">
         <v>17</v>
       </c>
+      <c r="D31" s="2">
+        <v>12000</v>
+      </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>5</v>
@@ -1168,7 +1249,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>5</v>
@@ -1182,7 +1263,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>5</v>
@@ -1196,7 +1277,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -1213,7 +1294,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -1230,7 +1311,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
@@ -1247,7 +1328,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -1261,7 +1342,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -1278,7 +1359,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -1295,7 +1376,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>5</v>
@@ -1309,7 +1390,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
@@ -1326,7 +1407,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -1343,7 +1424,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>5</v>
@@ -1357,7 +1438,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -1371,7 +1452,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>2</v>
@@ -1388,7 +1469,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>5</v>
@@ -1402,7 +1483,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>5</v>
@@ -1416,7 +1497,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>2</v>
@@ -1433,7 +1514,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>5</v>
@@ -1447,7 +1528,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
@@ -1464,7 +1545,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>2</v>
@@ -1478,7 +1559,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>2</v>
@@ -1495,7 +1576,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
@@ -1512,7 +1593,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -1529,7 +1610,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
@@ -1546,7 +1627,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
@@ -1563,7 +1644,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
@@ -1580,7 +1661,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
@@ -1597,7 +1678,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>2</v>
@@ -1614,7 +1695,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
@@ -1628,7 +1709,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>3</v>
@@ -1642,7 +1723,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>3</v>
@@ -1656,7 +1737,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>3</v>
@@ -1670,7 +1751,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>3</v>
@@ -1684,7 +1765,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>3</v>
@@ -1698,7 +1779,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>3</v>
@@ -1712,7 +1793,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>4</v>
@@ -1726,7 +1807,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>4</v>
@@ -1740,7 +1821,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>4</v>
@@ -1754,7 +1835,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
@@ -1768,7 +1849,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>4</v>
@@ -1782,7 +1863,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>4</v>
@@ -1796,7 +1877,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>6</v>
@@ -1813,10 +1894,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -1830,7 +1911,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
         <v>2</v>
@@ -1844,7 +1925,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
         <v>2</v>

--- a/public/Store.xlsx
+++ b/public/Store.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdmxf\Documents\GitHub\rrlco\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A69DCAA-9949-4A5C-8072-FA1453F744F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14711D5F-34E7-4090-8989-61891E39079F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13515" xr2:uid="{443C1E68-6AF7-4299-AB4D-41571851114D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="13875" windowHeight="20355" xr2:uid="{443C1E68-6AF7-4299-AB4D-41571851114D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81771D1-9822-493A-BB49-2C6987B6768C}">
   <dimension ref="A1:H10000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.45"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="H2" s="2">
         <f>SUM(E2:E10000)</f>
-        <v>11370940</v>
+        <v>11291940</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1037,13 +1037,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
         <v>79000</v>
       </c>
       <c r="E20" s="1">
-        <v>79000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -1827,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
